--- a/Capacity_Planning/lib/CaseDataBasic.xlsx
+++ b/Capacity_Planning/lib/CaseDataBasic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DataTiming" sheetId="29" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="TRn" sheetId="16" r:id="rId7"/>
     <sheet name="MassBalance" sheetId="19" r:id="rId8"/>
     <sheet name="DataF" sheetId="1" r:id="rId9"/>
-    <sheet name="Dict (i=8)" sheetId="5" r:id="rId10"/>
+    <sheet name="Dict" sheetId="5" r:id="rId10"/>
     <sheet name="Sis" sheetId="27" r:id="rId11"/>
     <sheet name="Pif" sheetId="6" r:id="rId12"/>
     <sheet name="CIF1sf" sheetId="8" r:id="rId13"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>Nation n</t>
   </si>
@@ -79,23 +79,6 @@
   </si>
   <si>
     <t>s/f</t>
-  </si>
-  <si>
-    <t>Budget for primary expansion (t=1)</t>
-  </si>
-  <si>
-    <r>
-      <t>Budget fo seconcary expansion (t=1+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>∆t*)</t>
-    </r>
   </si>
   <si>
     <t>$</t>
@@ -148,19 +131,7 @@
     <t>set up cost Ks</t>
   </si>
   <si>
-    <t>weeks</t>
-  </si>
-  <si>
-    <t>per week</t>
-  </si>
-  <si>
-    <t>(5 years with 50 weeks per year)</t>
-  </si>
-  <si>
     <t>(or 0,95 per year)</t>
-  </si>
-  <si>
-    <t>$/week</t>
   </si>
   <si>
     <t>This is slightly less than the time it will take for a new drug to go through the three stages of clinical trials and roughly the time it will take to build and qualify new capacity.</t>
@@ -190,36 +161,12 @@
     <t>gamma c</t>
   </si>
   <si>
-    <t>capacity demand</t>
-  </si>
-  <si>
     <t>total cost p</t>
   </si>
   <si>
     <t>total cost s</t>
   </si>
   <si>
-    <t>max cap. Quf [tons/year]</t>
-  </si>
-  <si>
-    <t>D Monopoly [tons/year]</t>
-  </si>
-  <si>
-    <t>D Regular Market [tons/year]</t>
-  </si>
-  <si>
-    <t>min expansion qLf [tons/year]</t>
-  </si>
-  <si>
-    <t>min production XLf [tons/year]</t>
-  </si>
-  <si>
-    <t>i/s [tons/year]</t>
-  </si>
-  <si>
-    <t>tons/year</t>
-  </si>
-  <si>
     <t>facility</t>
   </si>
   <si>
@@ -236,16 +183,56 @@
   </si>
   <si>
     <t>months</t>
+  </si>
+  <si>
+    <t>$/month</t>
+  </si>
+  <si>
+    <t>i/s [tons/month]</t>
+  </si>
+  <si>
+    <t>(5 years with 12 month per year)</t>
+  </si>
+  <si>
+    <t>per month</t>
+  </si>
+  <si>
+    <t>max cap. Quf [tons/month]</t>
+  </si>
+  <si>
+    <t>min expansion qLf [tons/month]</t>
+  </si>
+  <si>
+    <t>min production XLf [tons/month]</t>
+  </si>
+  <si>
+    <t>Budget for primary &amp; secondary expansion (t=1)</t>
+  </si>
+  <si>
+    <t>initial capacity Q0</t>
+  </si>
+  <si>
+    <t>tons/month</t>
+  </si>
+  <si>
+    <t>D Monopoly [tons/month]</t>
+  </si>
+  <si>
+    <t>D Regular Market [tons/month]</t>
+  </si>
+  <si>
+    <t>API</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -351,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -381,6 +368,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -426,73 +414,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>670560</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rechteck 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4968240" y="327660"/>
-          <a:ext cx="2346960" cy="449580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100"/>
-            <a:t>Budget constraint aufteilen</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1100" baseline="0"/>
-            <a:t> für primary und secondary</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-DE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -761,10 +682,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,88 +697,88 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1">
         <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>0.999</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="21">
+        <f>0.95^(1/12)</f>
+        <v>0.99573468122243936</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <f>3*4</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="18">
-        <v>1000000</v>
+        <v>4000000</v>
       </c>
       <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
         <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
       </c>
       <c r="H5" s="19">
         <f>B5*B3+B7</f>
-        <v>260000000</v>
+        <v>250000000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="18">
-        <v>500000</v>
+        <v>2000000</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H6" s="19">
         <f>B6*B4+B8</f>
@@ -866,66 +787,54 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="18">
         <v>10000000</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="18">
         <v>5000000</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B9" s="18">
-        <v>20000000</v>
+        <v>80000000</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <f>200+B10</f>
         <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13">
-        <f>250*300</f>
-        <v>75000</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -941,15 +850,15 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="10"/>
     <col min="2" max="2" width="14.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11.5546875" style="10"/>
   </cols>
@@ -960,27 +869,26 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6">
-        <f>250*300</f>
-        <v>75000</v>
+        <v>6250</v>
       </c>
       <c r="D1" s="6">
         <f>SUM(D3:D4)</f>
-        <v>34500</v>
+        <v>2875</v>
       </c>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>10</v>
@@ -995,11 +903,11 @@
       </c>
       <c r="C3" s="10">
         <f>B3*$C$1</f>
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="D3" s="20">
         <f>C3*E3</f>
-        <v>21000</v>
+        <v>1750</v>
       </c>
       <c r="E3" s="10">
         <v>0.7</v>
@@ -1014,11 +922,11 @@
       </c>
       <c r="C4" s="10">
         <f t="shared" ref="C4" si="0">B4*$C$1</f>
-        <v>45000</v>
+        <v>3750</v>
       </c>
       <c r="D4" s="20">
         <f t="shared" ref="D4" si="1">C4*E4</f>
-        <v>13500</v>
+        <v>1125</v>
       </c>
       <c r="E4" s="10">
         <v>0.3</v>
@@ -1037,17 +945,17 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B1" s="13">
         <v>21</v>
@@ -1070,19 +978,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>60000</v>
+        <v>5000</v>
       </c>
       <c r="C2" s="2">
-        <v>33000</v>
+        <v>2750</v>
       </c>
       <c r="D2" s="2">
-        <v>24000</v>
+        <v>2000</v>
       </c>
       <c r="E2" s="2">
-        <v>18000</v>
+        <v>1500</v>
       </c>
       <c r="F2" s="2">
-        <v>51000</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1090,19 +998,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>45000</v>
+        <v>3750</v>
       </c>
       <c r="C3" s="2">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="D3" s="2">
-        <v>36000</v>
+        <v>3000</v>
       </c>
       <c r="E3" s="2">
-        <v>24000</v>
+        <v>2000</v>
       </c>
       <c r="F3" s="2">
-        <v>45000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1110,19 +1018,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>21000</v>
+        <v>1750</v>
       </c>
       <c r="C4" s="2">
-        <v>51000</v>
+        <v>4250</v>
       </c>
       <c r="D4" s="2">
-        <v>45000</v>
+        <v>3750</v>
       </c>
       <c r="E4" s="2">
-        <v>33000</v>
+        <v>2750</v>
       </c>
       <c r="F4" s="2">
-        <v>24000</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1061,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
@@ -1310,7 +1218,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="12">
         <v>1</v>
@@ -1439,7 +1347,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="12">
         <v>1</v>
@@ -1576,7 +1484,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="12">
         <v>1</v>
@@ -1707,7 +1615,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="12">
         <v>1</v>
@@ -1838,7 +1746,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="12">
         <v>8</v>
@@ -1946,7 +1854,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="12">
         <v>1</v>
@@ -2083,7 +1991,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="12">
         <v>1</v>
@@ -2227,10 +2135,10 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3247,7 +3155,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3272,13 +3180,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4">
         <v>5</v>
-      </c>
-      <c r="E1" s="4">
-        <v>6</v>
-      </c>
-      <c r="F1" s="4">
-        <v>8</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -3562,30 +3470,30 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B1">
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3597,34 +3505,41 @@
         <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="17">
+        <v>350000000</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="17">
-        <v>300000000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="17">
-        <v>50000000</v>
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3635,7 +3550,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30:F32"/>
     </sheetView>
   </sheetViews>
@@ -4021,9 +3936,9 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="4"/>
-    <col min="2" max="2" width="21.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.5546875" style="2"/>
     <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.21875" style="2" bestFit="1" customWidth="1"/>
@@ -4043,16 +3958,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -4060,13 +3975,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>75000</v>
+        <v>6250</v>
       </c>
       <c r="C2" s="2">
-        <v>18000</v>
+        <v>1500</v>
       </c>
       <c r="D2" s="2">
-        <v>15000</v>
+        <v>1250</v>
       </c>
       <c r="E2" s="2">
         <v>1120</v>
@@ -4077,13 +3992,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>90000</v>
+        <v>7500</v>
       </c>
       <c r="C3" s="2">
-        <v>18000</v>
+        <v>1500</v>
       </c>
       <c r="D3" s="2">
-        <v>15000</v>
+        <v>1250</v>
       </c>
       <c r="E3" s="2">
         <v>1120</v>
@@ -4094,13 +4009,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>84000</v>
+        <v>7000</v>
       </c>
       <c r="C4" s="2">
-        <v>18000</v>
+        <v>1500</v>
       </c>
       <c r="D4" s="2">
-        <v>15000</v>
+        <v>1250</v>
       </c>
       <c r="E4" s="2">
         <v>1120</v>
@@ -4111,13 +4026,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>96000</v>
+        <v>8000</v>
       </c>
       <c r="C5" s="2">
-        <v>18000</v>
+        <v>1500</v>
       </c>
       <c r="D5" s="2">
-        <v>15000</v>
+        <v>1250</v>
       </c>
       <c r="E5" s="2">
         <v>1120</v>
@@ -4128,13 +4043,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>24000</v>
+        <v>2000</v>
       </c>
       <c r="C6" s="2">
-        <v>6000</v>
+        <v>500</v>
       </c>
       <c r="D6" s="2">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="E6" s="2">
         <v>930</v>
@@ -4145,13 +4060,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>27000</v>
+        <v>2250</v>
       </c>
       <c r="C7" s="2">
-        <v>6000</v>
+        <v>500</v>
       </c>
       <c r="D7" s="2">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="E7" s="2">
         <v>930</v>
@@ -4162,13 +4077,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>21000</v>
+        <v>1750</v>
       </c>
       <c r="C8" s="2">
-        <v>6000</v>
+        <v>500</v>
       </c>
       <c r="D8" s="2">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="E8" s="2">
         <v>930</v>
@@ -4179,13 +4094,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>27000</v>
+        <v>2250</v>
       </c>
       <c r="C9" s="2">
-        <v>6000</v>
+        <v>500</v>
       </c>
       <c r="D9" s="2">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="E9" s="2">
         <v>930</v>

--- a/Capacity_Planning/lib/CaseDataBasic.xlsx
+++ b/Capacity_Planning/lib/CaseDataBasic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="DataTiming" sheetId="29" r:id="rId1"/>
@@ -684,8 +684,8 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,7 +717,6 @@
         <v>19</v>
       </c>
       <c r="B2" s="21">
-        <f>0.95^(1/12)</f>
         <v>0.99573468122243936</v>
       </c>
       <c r="C2" t="s">
@@ -3472,7 +3471,7 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>

--- a/Capacity_Planning/lib/CaseDataBasic.xlsx
+++ b/Capacity_Planning/lib/CaseDataBasic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DataTiming" sheetId="29" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>Nation n</t>
   </si>
@@ -222,6 +222,21 @@
   </si>
   <si>
     <t>API</t>
+  </si>
+  <si>
+    <t>construction cost cs</t>
+  </si>
+  <si>
+    <t>Number of facilities</t>
+  </si>
+  <si>
+    <t>Number of Materials</t>
+  </si>
+  <si>
+    <t>Number of Months</t>
+  </si>
+  <si>
+    <t>Number of Nations</t>
   </si>
 </sst>
 </file>
@@ -684,8 +699,8 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,7 +783,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B6" s="18">
         <v>2000000</v>
@@ -3469,10 +3484,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3535,6 +3550,38 @@
       </c>
       <c r="B5">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Capacity_Planning/lib/CaseDataBasic.xlsx
+++ b/Capacity_Planning/lib/CaseDataBasic.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Documents\GitHub\OSCMSeminarProcessIndustry\Capacity_Planning\lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniawiggert/Documents/GitHub/OSCMSeminarProcessIndustry/Capacity_Planning/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="5"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="23040" windowHeight="9100" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DataTiming" sheetId="29" r:id="rId1"/>
@@ -33,9 +33,15 @@
     <sheet name="CIF7sf" sheetId="25" r:id="rId19"/>
     <sheet name="IDisf" sheetId="26" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -335,16 +341,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -386,8 +392,8 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Dezimal" xfId="1" builtinId="3"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -694,7 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:H12"/>
@@ -703,14 +709,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -727,7 +733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -741,7 +747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -752,7 +758,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -763,7 +769,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -781,7 +787,7 @@
         <v>250000000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -799,7 +805,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -810,7 +816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -821,7 +827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -832,17 +838,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -858,7 +864,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
@@ -867,17 +873,17 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="10"/>
+    <col min="1" max="1" width="10.83203125" style="10"/>
     <col min="2" max="2" width="14.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="10"/>
+    <col min="4" max="4" width="27.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -891,7 +897,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>33</v>
       </c>
@@ -908,7 +914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>11</v>
       </c>
@@ -927,7 +933,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>12</v>
       </c>
@@ -953,7 +959,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:F4"/>
@@ -962,12 +968,12 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>40</v>
       </c>
@@ -987,7 +993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1007,7 +1013,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>6</v>
       </c>
@@ -1054,7 +1060,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:H13"/>
@@ -1063,17 +1069,17 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="4" customWidth="1"/>
-    <col min="2" max="14" width="10.77734375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="2"/>
-    <col min="17" max="17" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="4" customWidth="1"/>
+    <col min="2" max="14" width="10.83203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="2"/>
+    <col min="17" max="17" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -1099,7 +1105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1107,7 +1113,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1115,7 +1121,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1123,7 +1129,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1131,27 +1137,27 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1197,12 +1203,12 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1214,7 +1220,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:K9"/>
@@ -1223,14 +1229,14 @@
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.77734375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.83203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>9</v>
       </c>
@@ -1268,7 +1274,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>10</v>
       </c>
@@ -1289,13 +1295,13 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="E5" s="11"/>
@@ -1304,7 +1310,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="E6" s="11"/>
       <c r="H6" s="2"/>
@@ -1312,7 +1318,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="11"/>
       <c r="E7" s="11"/>
       <c r="H7" s="2"/>
@@ -1320,7 +1326,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="11"/>
       <c r="E8" s="11"/>
       <c r="H8" s="2"/>
@@ -1328,7 +1334,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="11"/>
       <c r="E9" s="11"/>
       <c r="H9" s="2"/>
@@ -1343,7 +1349,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:K9"/>
@@ -1352,14 +1358,14 @@
       <selection activeCell="F1" sqref="F1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.77734375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.83203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>9</v>
       </c>
@@ -1401,7 +1407,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>10</v>
       </c>
@@ -1426,13 +1432,13 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="E5" s="11"/>
@@ -1441,7 +1447,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="E6" s="11"/>
       <c r="H6" s="2"/>
@@ -1449,7 +1455,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="11"/>
       <c r="E7" s="11"/>
       <c r="H7" s="2"/>
@@ -1457,7 +1463,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="11"/>
       <c r="E8" s="11"/>
       <c r="H8" s="2"/>
@@ -1465,7 +1471,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="11"/>
       <c r="E9" s="11"/>
       <c r="H9" s="2"/>
@@ -1480,7 +1486,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:K8"/>
@@ -1489,14 +1495,14 @@
       <selection activeCell="F1" sqref="F1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.77734375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.83203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -1513,7 +1519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>9</v>
       </c>
@@ -1538,7 +1544,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>10</v>
       </c>
@@ -1563,7 +1569,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="E4" s="11"/>
@@ -1572,7 +1578,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="11"/>
       <c r="E5" s="11"/>
       <c r="H5" s="2"/>
@@ -1580,7 +1586,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="E6" s="11"/>
       <c r="H6" s="2"/>
@@ -1588,7 +1594,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="11"/>
       <c r="E7" s="11"/>
       <c r="H7" s="2"/>
@@ -1596,7 +1602,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="11"/>
       <c r="E8" s="11"/>
       <c r="H8" s="2"/>
@@ -1611,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:K8"/>
@@ -1620,14 +1626,14 @@
       <selection activeCell="F1" sqref="F1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.77734375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.83203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>9</v>
       </c>
@@ -1669,7 +1675,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>10</v>
       </c>
@@ -1694,7 +1700,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="E4" s="11"/>
@@ -1703,7 +1709,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="11"/>
       <c r="E5" s="11"/>
       <c r="H5" s="2"/>
@@ -1711,7 +1717,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="E6" s="11"/>
       <c r="H6" s="2"/>
@@ -1719,7 +1725,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="11"/>
       <c r="E7" s="11"/>
       <c r="H7" s="2"/>
@@ -1727,7 +1733,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="11"/>
       <c r="E8" s="11"/>
       <c r="H8" s="2"/>
@@ -1742,7 +1748,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:E5"/>
@@ -1751,14 +1757,14 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8.77734375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.83203125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1792,7 +1798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1809,7 +1815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1826,7 +1832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1850,7 +1856,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:K9"/>
@@ -1859,14 +1865,14 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.77734375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.83203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -1883,7 +1889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>9</v>
       </c>
@@ -1908,7 +1914,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>10</v>
       </c>
@@ -1933,13 +1939,13 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="E5" s="11"/>
@@ -1948,7 +1954,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="E6" s="11"/>
       <c r="H6" s="2"/>
@@ -1956,7 +1962,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="11"/>
       <c r="E7" s="11"/>
       <c r="H7" s="2"/>
@@ -1964,7 +1970,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="11"/>
       <c r="E8" s="11"/>
       <c r="H8" s="2"/>
@@ -1972,7 +1978,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="11"/>
       <c r="E9" s="11"/>
       <c r="H9" s="2"/>
@@ -1987,7 +1993,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:K9"/>
@@ -1996,14 +2002,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.77734375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.83203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>9</v>
       </c>
@@ -2045,7 +2051,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>10</v>
       </c>
@@ -2070,13 +2076,13 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="E5" s="11"/>
@@ -2085,7 +2091,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="E6" s="11"/>
       <c r="H6" s="2"/>
@@ -2093,7 +2099,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="11"/>
       <c r="E7" s="11"/>
       <c r="H7" s="2"/>
@@ -2101,7 +2107,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="11"/>
       <c r="E8" s="11"/>
       <c r="H8" s="2"/>
@@ -2109,7 +2115,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="11"/>
       <c r="E9" s="11"/>
       <c r="H9" s="2"/>
@@ -2124,7 +2130,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:E13"/>
@@ -2133,12 +2139,12 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" style="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2172,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2189,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2206,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2223,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2240,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2257,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2274,7 +2280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2291,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2308,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2325,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2342,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2366,7 +2372,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:I7"/>
@@ -2375,14 +2381,14 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="13"/>
-    <col min="2" max="9" width="8.77734375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="13"/>
+    <col min="2" max="9" width="8.83203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
@@ -2411,7 +2417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2440,7 +2446,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -2469,7 +2475,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -2498,7 +2504,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -2527,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>9</v>
       </c>
@@ -2556,7 +2562,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>10</v>
       </c>
@@ -2592,7 +2598,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:E13"/>
@@ -2601,18 +2607,18 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="5"/>
-    <col min="2" max="6" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="6" width="10.83203125" style="3"/>
     <col min="7" max="7" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5546875" style="3"/>
+    <col min="11" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -2629,7 +2635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2646,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2680,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2697,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2714,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2731,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2748,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2765,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2782,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2799,7 +2805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2816,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2845,7 +2851,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H13"/>
@@ -2854,18 +2860,18 @@
       <selection activeCell="A4" sqref="A4:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="5"/>
-    <col min="2" max="9" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="9" width="10.83203125" style="3"/>
     <col min="10" max="10" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5546875" style="3"/>
+    <col min="14" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -2887,7 +2893,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2909,7 +2915,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2931,7 +2937,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2953,7 +2959,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2975,7 +2981,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2997,7 +3003,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3019,7 +3025,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3041,7 +3047,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3063,7 +3069,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3085,7 +3091,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3107,7 +3113,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3129,7 +3135,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3163,7 +3169,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H13"/>
@@ -3172,18 +3178,18 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="5"/>
-    <col min="2" max="9" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="9" width="10.83203125" style="3"/>
     <col min="10" max="10" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5546875" style="3"/>
+    <col min="14" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -3205,7 +3211,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3227,7 +3233,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3249,7 +3255,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3271,7 +3277,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3293,7 +3299,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3315,7 +3321,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3337,7 +3343,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3359,7 +3365,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3381,7 +3387,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3403,7 +3409,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3425,7 +3431,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3447,7 +3453,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3481,22 +3487,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -3510,7 +3516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3522,7 +3528,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -3533,7 +3539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -3544,7 +3550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -3552,7 +3558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -3560,7 +3566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -3568,7 +3574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -3576,7 +3582,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -3591,7 +3597,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
@@ -3600,12 +3606,12 @@
       <selection activeCell="F30" sqref="F30:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3613,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3621,7 +3627,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3629,7 +3635,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3637,7 +3643,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3652,7 +3658,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:H13"/>
@@ -3661,18 +3667,18 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="5"/>
-    <col min="2" max="9" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="9" width="10.83203125" style="3"/>
     <col min="10" max="10" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5546875" style="3"/>
+    <col min="14" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -3694,7 +3700,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3716,7 +3722,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3738,7 +3744,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3760,7 +3766,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3782,7 +3788,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3804,7 +3810,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3826,7 +3832,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3848,7 +3854,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3870,7 +3876,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3892,7 +3898,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3914,7 +3920,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3936,7 +3942,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3970,7 +3976,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:E9"/>
@@ -3979,27 +3985,27 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="4"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="2" max="2" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" style="2"/>
+    <col min="4" max="4" width="29.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="2"/>
     <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="2"/>
-    <col min="12" max="12" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" style="2"/>
-    <col min="16" max="16" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.5546875" style="2"/>
+    <col min="11" max="11" width="10.83203125" style="2"/>
+    <col min="12" max="12" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="2"/>
+    <col min="16" max="16" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -4016,7 +4022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4033,7 +4039,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4050,7 +4056,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4067,7 +4073,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4084,7 +4090,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4101,7 +4107,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4118,7 +4124,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4135,7 +4141,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
